--- a/Year1B_Superstar_Final.xlsx
+++ b/Year1B_Superstar_Final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamzah.karolia\OneDrive - East Lancashire Moneyline\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://elmlinecouk-my.sharepoint.com/personal/hamzah_karolia_elmline_co_uk/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AFA91C8-A026-4AD9-A3FB-7206052477FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767842F7-4C84-4BC8-9AE6-12E4F19BE1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -259,43 +259,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -709,7 +709,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,7 +730,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -741,7 +741,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -752,7 +752,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -763,7 +763,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -774,7 +774,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -785,7 +785,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -796,7 +796,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -807,7 +807,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -818,7 +818,7 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -829,7 +829,7 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -840,7 +840,7 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -851,7 +851,7 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -862,7 +862,7 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
